--- a/Testing.xlsx
+++ b/Testing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dxcportal-my.sharepoint.com/personal/nishantnaresh_meher_dxc_com/Documents/Documents/git_workspace/c_plus_plus_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="157" documentId="8_{BF3E1325-0CC9-47E8-BCC0-4DA2D55A3C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CF81576-D284-41D7-B403-1ABBD7365D2D}"/>
+  <xr:revisionPtr revIDLastSave="301" documentId="8_{BF3E1325-0CC9-47E8-BCC0-4DA2D55A3C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3D3238B-F15B-4561-8691-980A703B7079}"/>
   <bookViews>
-    <workbookView xWindow="23040" yWindow="6528" windowWidth="30588" windowHeight="8340" xr2:uid="{AEFA6787-76B0-4AFD-9082-33A24F81C1B1}"/>
+    <workbookView xWindow="22932" yWindow="-1920" windowWidth="30936" windowHeight="16896" xr2:uid="{AEFA6787-76B0-4AFD-9082-33A24F81C1B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="32">
   <si>
     <t>File Name</t>
   </si>
@@ -86,9 +86,6 @@
     <t>_Prev空間</t>
   </si>
   <si>
-    <t>_Prev空間, デートフォーマット</t>
-  </si>
-  <si>
     <t>_Prevn</t>
   </si>
   <si>
@@ -105,13 +102,43 @@
   </si>
   <si>
     <t>_Prev空間, デートフォーマット,リビジョンリセット</t>
+  </si>
+  <si>
+    <t>Test-2 [ 8/30 ]</t>
+  </si>
+  <si>
+    <t>Test-1 [ 8/29 ]</t>
+  </si>
+  <si>
+    <t>Main -&gt; Main</t>
+  </si>
+  <si>
+    <t>Revision -&gt; Revision</t>
+  </si>
+  <si>
+    <t>Main -&gt; Revisoin</t>
+  </si>
+  <si>
+    <t>Revision -&gt; Main</t>
+  </si>
+  <si>
+    <t>_Prev空間, デートフォーマット,リビジョンフォーマット</t>
+  </si>
+  <si>
+    <t>Identifier-リビジョン3桁</t>
+  </si>
+  <si>
+    <t>リビジョン3桁</t>
+  </si>
+  <si>
+    <t>Test-1 [ 8/30 ]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,8 +171,24 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -160,6 +203,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -187,21 +240,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
+    <cellStyle name="Bad" xfId="4" builtinId="27"/>
     <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
+    <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -216,6 +275,96 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2263140</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle: Single Corner Rounded 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57F59751-09AA-2BE5-A72E-110D1ECD07BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="160020" y="632460"/>
+          <a:ext cx="2103120" cy="1179195"/>
+        </a:xfrm>
+        <a:prstGeom prst="round1Rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>_Prev</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>の行列に </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>"//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> const Vi_Version"</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>メインバージョンアップデートの時空間を入ること。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -515,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C8EF960-6E33-4431-9F40-4BDE65BEEC5B}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -527,11 +676,11 @@
     <col min="2" max="2" width="15.5703125" customWidth="1"/>
     <col min="3" max="3" width="23.5703125" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" customWidth="1"/>
+    <col min="5" max="5" width="52.42578125" customWidth="1"/>
     <col min="6" max="6" width="29.7109375" customWidth="1"/>
     <col min="7" max="7" width="31.28515625" customWidth="1"/>
-    <col min="8" max="8" width="27" customWidth="1"/>
-    <col min="9" max="9" width="26.42578125" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" customWidth="1"/>
     <col min="10" max="10" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -573,123 +722,67 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="H3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="I4" s="4"/>
+      <c r="J4" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -698,11 +791,238 @@
       </c>
       <c r="B11" t="s">
         <v>11</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="17" spans="1:10" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" thickTop="1"/>
+    <row r="19" spans="1:10">
+      <c r="A19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="B32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="B33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="B34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="B35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="B38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="B39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="B41" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Testing.xlsx
+++ b/Testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dxcportal-my.sharepoint.com/personal/nishantnaresh_meher_dxc_com/Documents/Documents/git_workspace/c_plus_plus_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="301" documentId="8_{BF3E1325-0CC9-47E8-BCC0-4DA2D55A3C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3D3238B-F15B-4561-8691-980A703B7079}"/>
+  <xr:revisionPtr revIDLastSave="309" documentId="8_{BF3E1325-0CC9-47E8-BCC0-4DA2D55A3C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96F945C9-43FC-4A4E-B502-BC1187C5D139}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-1920" windowWidth="30936" windowHeight="16896" xr2:uid="{AEFA6787-76B0-4AFD-9082-33A24F81C1B1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="34">
   <si>
     <t>File Name</t>
   </si>
@@ -132,6 +132,12 @@
   </si>
   <si>
     <t>Test-1 [ 8/30 ]</t>
+  </si>
+  <si>
+    <t>Test-3 山田さんと</t>
+  </si>
+  <si>
+    <t>_Prev空間(1っ回目だけ）</t>
   </si>
 </sst>
 </file>
@@ -667,7 +673,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -772,7 +778,14 @@
     </row>
     <row r="5" spans="1:10">
       <c r="B5" t="s">
-        <v>18</v>
+        <v>32</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="H5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -862,7 +875,7 @@
       <c r="B19" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="4"/>
@@ -879,6 +892,7 @@
       <c r="B20" t="s">
         <v>17</v>
       </c>
+      <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:10">
       <c r="B21" t="s">

--- a/Testing.xlsx
+++ b/Testing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dxcportal-my.sharepoint.com/personal/nishantnaresh_meher_dxc_com/Documents/Documents/git_workspace/c_plus_plus_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="309" documentId="8_{BF3E1325-0CC9-47E8-BCC0-4DA2D55A3C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96F945C9-43FC-4A4E-B502-BC1187C5D139}"/>
+  <xr:revisionPtr revIDLastSave="325" documentId="8_{BF3E1325-0CC9-47E8-BCC0-4DA2D55A3C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50CF8CA4-67C1-435F-B464-B459AF9C4598}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-1920" windowWidth="30936" windowHeight="16896" xr2:uid="{AEFA6787-76B0-4AFD-9082-33A24F81C1B1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AEFA6787-76B0-4AFD-9082-33A24F81C1B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="36">
   <si>
     <t>File Name</t>
   </si>
@@ -138,6 +138,12 @@
   </si>
   <si>
     <t>_Prev空間(1っ回目だけ）</t>
+  </si>
+  <si>
+    <t>Test-4 [ 8/31 ]</t>
+  </si>
+  <si>
+    <t>const Vi_Version DasMLoadData_Version        ("DasMLoadData",   "2021/12/05", "000", "01", "RELS_DASMLOADDATA_000-01", "", "hp");</t>
   </si>
 </sst>
 </file>
@@ -253,7 +259,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1">
@@ -262,6 +268,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="4" builtinId="27"/>
@@ -281,96 +290,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2263140</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle: Single Corner Rounded 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57F59751-09AA-2BE5-A72E-110D1ECD07BC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="160020" y="632460"/>
-          <a:ext cx="2103120" cy="1179195"/>
-        </a:xfrm>
-        <a:prstGeom prst="round1Rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>_Prev</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>の行列に </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>"//</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> const Vi_Version"</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>メインバージョンアップデートの時空間を入ること。</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -673,7 +592,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -682,7 +601,7 @@
     <col min="2" max="2" width="15.5703125" customWidth="1"/>
     <col min="3" max="3" width="23.5703125" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="52.42578125" customWidth="1"/>
+    <col min="5" max="5" width="42.42578125" customWidth="1"/>
     <col min="6" max="6" width="29.7109375" customWidth="1"/>
     <col min="7" max="7" width="31.28515625" customWidth="1"/>
     <col min="8" max="8" width="20.42578125" customWidth="1"/>
@@ -722,7 +641,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickTop="1"/>
+    <row r="2" spans="1:10" ht="105.75" thickTop="1">
+      <c r="C2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>1</v>
@@ -790,8 +719,13 @@
     </row>
     <row r="6" spans="1:10">
       <c r="B6" t="s">
-        <v>19</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10">
       <c r="B7" t="s">
@@ -1037,6 +971,5 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Testing.xlsx
+++ b/Testing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dxcportal-my.sharepoint.com/personal/nishantnaresh_meher_dxc_com/Documents/Documents/git_workspace/c_plus_plus_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="325" documentId="8_{BF3E1325-0CC9-47E8-BCC0-4DA2D55A3C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50CF8CA4-67C1-435F-B464-B459AF9C4598}"/>
+  <xr:revisionPtr revIDLastSave="329" documentId="8_{BF3E1325-0CC9-47E8-BCC0-4DA2D55A3C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4C53D58-584B-41A4-922F-81BECF6596A9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AEFA6787-76B0-4AFD-9082-33A24F81C1B1}"/>
+    <workbookView xWindow="22932" yWindow="-1920" windowWidth="30936" windowHeight="16896" xr2:uid="{AEFA6787-76B0-4AFD-9082-33A24F81C1B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="36">
   <si>
     <t>File Name</t>
   </si>
@@ -143,7 +143,7 @@
     <t>Test-4 [ 8/31 ]</t>
   </si>
   <si>
-    <t>const Vi_Version DasMLoadData_Version        ("DasMLoadData",   "2021/12/05", "000", "01", "RELS_DASMLOADDATA_000-01", "", "hp");</t>
+    <t>Test-5 [9/1]</t>
   </si>
 </sst>
 </file>
@@ -592,7 +592,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -641,16 +641,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="105.75" thickTop="1">
-      <c r="C2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>35</v>
-      </c>
+    <row r="2" spans="1:10" ht="15.75" thickTop="1">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
@@ -729,7 +723,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="B7" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:10">

--- a/Testing.xlsx
+++ b/Testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dxcportal-my.sharepoint.com/personal/nishantnaresh_meher_dxc_com/Documents/Documents/git_workspace/c_plus_plus_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="329" documentId="8_{BF3E1325-0CC9-47E8-BCC0-4DA2D55A3C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4C53D58-584B-41A4-922F-81BECF6596A9}"/>
+  <xr:revisionPtr revIDLastSave="383" documentId="8_{BF3E1325-0CC9-47E8-BCC0-4DA2D55A3C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{674EB92F-AA37-4FD4-BE1C-E30E1DE9483D}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-1920" windowWidth="30936" windowHeight="16896" xr2:uid="{AEFA6787-76B0-4AFD-9082-33A24F81C1B1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="32">
   <si>
     <t>File Name</t>
   </si>
@@ -89,18 +89,6 @@
     <t>_Prevn</t>
   </si>
   <si>
-    <t>Test-2</t>
-  </si>
-  <si>
-    <t>Test-3</t>
-  </si>
-  <si>
-    <t>Test-4</t>
-  </si>
-  <si>
-    <t>Test-5</t>
-  </si>
-  <si>
     <t>_Prev空間, デートフォーマット,リビジョンリセット</t>
   </si>
   <si>
@@ -116,9 +104,6 @@
     <t>Revision -&gt; Revision</t>
   </si>
   <si>
-    <t>Main -&gt; Revisoin</t>
-  </si>
-  <si>
     <t>Revision -&gt; Main</t>
   </si>
   <si>
@@ -144,13 +129,16 @@
   </si>
   <si>
     <t>Test-5 [9/1]</t>
+  </si>
+  <si>
+    <t>Main -&gt; Revision</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,6 +182,15 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
@@ -252,14 +249,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1">
@@ -271,10 +269,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="5" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Bad" xfId="4" builtinId="27"/>
     <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
+    <cellStyle name="Explanatory Text" xfId="5" builtinId="53"/>
     <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -589,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C8EF960-6E33-4431-9F40-4BDE65BEEC5B}">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -646,48 +647,48 @@
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" s="7" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="E3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="B4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -701,19 +702,19 @@
     </row>
     <row r="5" spans="1:10">
       <c r="B5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C5" s="4"/>
       <c r="H5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="B6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -723,7 +724,19 @@
     </row>
     <row r="7" spans="1:10">
       <c r="B7" t="s">
-        <v>35</v>
+        <v>30</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -744,222 +757,192 @@
     </row>
     <row r="12" spans="1:10">
       <c r="B12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="14" spans="1:10" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" thickTop="1"/>
+    <row r="16" spans="1:10">
+      <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="17" spans="1:10" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" thickTop="1"/>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+    </row>
     <row r="19" spans="1:10">
       <c r="A19" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>12</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10">
       <c r="B20" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="B21" t="s">
-        <v>18</v>
-      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
     </row>
     <row r="22" spans="1:10">
+      <c r="A22" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="B22" t="s">
-        <v>19</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10">
       <c r="B23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>30</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="25" spans="1:10" s="7" customFormat="1">
       <c r="A25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
+      <c r="D25" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="26" spans="1:10">
       <c r="B26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="B27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="B28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="B29" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="B32" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="B33" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="B34" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="B35" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B37" t="s">
-        <v>31</v>
-      </c>
-      <c r="C37" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="B38" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="B39" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="B40" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="B41" t="s">
-        <v>20</v>
-      </c>
+      <c r="C26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
